--- a/Consumer/ELF.xlsx
+++ b/Consumer/ELF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F27DFB5-DFDF-2942-9AE6-AB5A7C4CE6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B69BB6C-DB4F-0B49-829A-20E566B14F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -2027,9 +2027,11 @@
     <v>Powered by Refinitiv</v>
     <v>221.82990000000001</v>
     <v>92.16</v>
-    <v>1.4469000000000001</v>
-    <v>-3.0150000000000001</v>
-    <v>-2.8142999999999998E-2</v>
+    <v>1.4574</v>
+    <v>4.08</v>
+    <v>3.5151000000000002E-2</v>
+    <v>0.34</v>
+    <v>2.8289999999999999E-3</v>
     <v>USD</v>
     <v>e.l.f. Beauty, Inc. is a multi-brand beauty company. The Company offers inclusive, accessible, clean, vegan, and cruelty-free cosmetics and skincare products. The Company's family of brands includes e.l.f. Cosmetics, e.l.f. SKIN, Naturium, Well People and Keys Soulcare. Its e.l.f. SKIN is an ingredient-focused, dermatologist-developed formula for every eye, lip, face and skin concern. The Company operates across beauty categories including eye, lip, and face makeup, beauty tools and accessories, and skincare products. Its color cosmetics and skin care products are broadly sold through food, drug, and mass channels, as well as through department stores and direct and specialty channels. The Company's brands are available online and across beauty, mass market and specialty retailers in the United States and internationally. The Company sell its products online through its own direct e-commerce channels, as well as through other e-commerce Websites.</v>
     <v>475</v>
@@ -2037,24 +2039,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>570 10th St, OAKLAND, CA, 94607-4038 US</v>
-    <v>107.36</v>
+    <v>120.33</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45602.929237835153</v>
+    <v>45604.883105717185</v>
     <v>0</v>
-    <v>98.5</v>
-    <v>5870860566</v>
+    <v>114.27</v>
+    <v>6775045834</v>
     <v>E.L.F. BEAUTY, INC.</v>
     <v>E.L.F. BEAUTY, INC.</v>
-    <v>107</v>
-    <v>49.526899999999998</v>
-    <v>107.13</v>
-    <v>104.11499999999999</v>
-    <v>56388230</v>
+    <v>117</v>
+    <v>64.977599999999995</v>
+    <v>116.07</v>
+    <v>120.15</v>
+    <v>120.54</v>
+    <v>56331040</v>
     <v>ELF</v>
     <v>E.L.F. BEAUTY, INC. (XNYS:ELF)</v>
-    <v>5960</v>
-    <v>2104148</v>
+    <v>3876923</v>
+    <v>2612901</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2086,6 +2089,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2106,6 +2111,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2122,7 +2128,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2133,13 +2139,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2205,13 +2214,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2256,6 +2271,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2263,6 +2281,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2963,14 +2984,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>104.11499999999999</v>
+        <v>120.15</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="39">
         <f ca="1">A5/F10</f>
-        <v>4.444254781226344</v>
+        <v>5.1287250825132471</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2984,7 +3005,7 @@
       </c>
       <c r="G3" s="43" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>65414483.140550599</v>
+        <v>65348138.54539647</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -3010,14 +3031,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.8142999999999998E-2</v>
+        <v>3.5151000000000002E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="39">
         <f ca="1">A5/F15</f>
-        <v>28.920495399014779</v>
+        <v>33.374610019704434</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -3058,14 +3079,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>5870860566</v>
+        <v>6775045834</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="40">
         <f ca="1">F18/A5</f>
-        <v>3.3385224839965991E-2</v>
+        <v>2.8929693584712066E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3092,7 +3113,7 @@
       </c>
       <c r="K5" s="45">
         <f ca="1">I5/G3</f>
-        <v>78.115600796228335</v>
+        <v>78.194907537405783</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -3107,7 +3128,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.4469000000000001</v>
+        <v>1.4574</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3140,7 +3161,7 @@
       </c>
       <c r="K6" s="46">
         <f ca="1">K5/A3-1</f>
-        <v>-0.24971809253010291</v>
+        <v>-0.34918928391672266</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
